--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -1122,6 +1122,27 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Attack Upgrades</t>
+  </si>
+  <si>
+    <t>Enemy Health/Variations</t>
+  </si>
+  <si>
+    <t>Base Health</t>
+  </si>
+  <si>
+    <t>Turrets</t>
+  </si>
+  <si>
+    <t>Multiple Lanes</t>
+  </si>
+  <si>
+    <t>Final Testing and Optimization</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2409,45 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3297,17 +3356,17 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN64"/>
+  <dimension ref="A1:BN70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X37" sqref="X37"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL40" sqref="AL40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" style="11" customWidth="1"/>
     <col min="5" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -4768,7 +4827,7 @@
     </row>
     <row r="16" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90" t="str">
-        <f t="shared" ref="A16:A48" ca="1" si="15">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A16,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))),OFFSET(A16,-1,0,1,1)&amp;".1",LEFT(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A16,-1,0,1,1),LEN(OFFSET(A16,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A16:A54" ca="1" si="15">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A16,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))),OFFSET(A16,-1,0,1,1)&amp;".1",LEFT(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A16,-1,0,1,1),LEN(OFFSET(A16,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B16" s="68" t="s">
@@ -4777,12 +4836,12 @@
       <c r="C16" s="69"/>
       <c r="D16" s="91"/>
       <c r="E16" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
+        <f>F34+1</f>
+        <v>43051</v>
       </c>
       <c r="F16" s="93">
         <f>IF(G16=0,E16,E16+G16-1)</f>
-        <v>43034</v>
+        <v>43054</v>
       </c>
       <c r="G16" s="94">
         <v>4</v>
@@ -4864,11 +4923,11 @@
       <c r="D17" s="91"/>
       <c r="E17" s="92">
         <f>F16+1</f>
-        <v>43035</v>
+        <v>43055</v>
       </c>
       <c r="F17" s="93">
         <f t="shared" ref="F17:F19" si="16">IF(G17=0,E17,E17+G17-1)</f>
-        <v>43041</v>
+        <v>43061</v>
       </c>
       <c r="G17" s="94">
         <v>7</v>
@@ -4950,11 +5009,11 @@
       <c r="D18" s="91"/>
       <c r="E18" s="92">
         <f>F17+1</f>
-        <v>43042</v>
+        <v>43062</v>
       </c>
       <c r="F18" s="93">
         <f t="shared" si="16"/>
-        <v>43044</v>
+        <v>43064</v>
       </c>
       <c r="G18" s="94">
         <v>3</v>
@@ -5036,11 +5095,11 @@
       <c r="D19" s="91"/>
       <c r="E19" s="92">
         <f>F18+1</f>
-        <v>43045</v>
+        <v>43065</v>
       </c>
       <c r="F19" s="93">
         <f t="shared" si="16"/>
-        <v>43046</v>
+        <v>43066</v>
       </c>
       <c r="G19" s="94">
         <v>2</v>
@@ -5116,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D20" s="85"/>
       <c r="E20" s="86"/>
@@ -5193,12 +5252,12 @@
       <c r="C21" s="69"/>
       <c r="D21" s="91"/>
       <c r="E21" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
+        <f>F14+1</f>
+        <v>43045</v>
       </c>
       <c r="F21" s="93">
         <f>IF(G21=0,E21,E21+G21-1)</f>
-        <v>43031</v>
+        <v>43045</v>
       </c>
       <c r="G21" s="94">
         <v>1</v>
@@ -5280,11 +5339,11 @@
       <c r="D22" s="91"/>
       <c r="E22" s="92">
         <f>F21+1</f>
-        <v>43032</v>
+        <v>43046</v>
       </c>
       <c r="F22" s="93">
         <f t="shared" ref="F22:F24" si="18">IF(G22=0,E22,E22+G22-1)</f>
-        <v>43034</v>
+        <v>43048</v>
       </c>
       <c r="G22" s="94">
         <v>3</v>
@@ -5366,11 +5425,11 @@
       <c r="D23" s="91"/>
       <c r="E23" s="92">
         <f>F22+1</f>
-        <v>43035</v>
+        <v>43049</v>
       </c>
       <c r="F23" s="93">
         <f t="shared" si="18"/>
-        <v>43036</v>
+        <v>43050</v>
       </c>
       <c r="G23" s="94">
         <v>2</v>
@@ -5452,11 +5511,11 @@
       <c r="D24" s="91"/>
       <c r="E24" s="92">
         <f>F23+1</f>
-        <v>43037</v>
+        <v>43051</v>
       </c>
       <c r="F24" s="93">
         <f t="shared" si="18"/>
-        <v>43037</v>
+        <v>43051</v>
       </c>
       <c r="G24" s="94">
         <v>1</v>
@@ -5532,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D25" s="85"/>
       <c r="E25" s="86"/>
@@ -5609,12 +5668,12 @@
       <c r="C26" s="69"/>
       <c r="D26" s="91"/>
       <c r="E26" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
+        <f>F14+1</f>
+        <v>43045</v>
       </c>
       <c r="F26" s="93">
         <f>IF(G26=0,E26,E26+G26-1)</f>
-        <v>43033</v>
+        <v>43047</v>
       </c>
       <c r="G26" s="94">
         <v>3</v>
@@ -5696,11 +5755,11 @@
       <c r="D27" s="91"/>
       <c r="E27" s="92">
         <f>F26+1</f>
-        <v>43034</v>
+        <v>43048</v>
       </c>
       <c r="F27" s="93">
         <f t="shared" ref="F27:F29" si="20">IF(G27=0,E27,E27+G27-1)</f>
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="G27" s="94">
         <v>5</v>
@@ -5782,11 +5841,11 @@
       <c r="D28" s="91"/>
       <c r="E28" s="92">
         <f>F27+1</f>
-        <v>43039</v>
+        <v>43053</v>
       </c>
       <c r="F28" s="93">
         <f t="shared" si="20"/>
-        <v>43039</v>
+        <v>43053</v>
       </c>
       <c r="G28" s="94">
         <v>1</v>
@@ -5868,11 +5927,11 @@
       <c r="D29" s="91"/>
       <c r="E29" s="92">
         <f>F28+1</f>
-        <v>43040</v>
+        <v>43054</v>
       </c>
       <c r="F29" s="93">
         <f t="shared" si="20"/>
-        <v>43041</v>
+        <v>43055</v>
       </c>
       <c r="G29" s="94">
         <v>2</v>
@@ -5948,7 +6007,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="85"/>
@@ -6015,23 +6074,23 @@
       <c r="BM30" s="88"/>
       <c r="BN30" s="99"/>
     </row>
-    <row r="31" spans="1:66" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>5.1</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="91"/>
       <c r="E31" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
+        <f>F14+1</f>
+        <v>43045</v>
       </c>
       <c r="F31" s="93">
-        <f t="shared" ref="F31:F33" si="21">IF(G31=0,E31,E31+G31-1)</f>
-        <v>43032</v>
+        <f t="shared" ref="F31" si="21">IF(G31=0,E31,E31+G31-1)</f>
+        <v>43046</v>
       </c>
       <c r="G31" s="94">
         <v>2</v>
@@ -6040,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="96">
-        <f t="shared" ref="I31:I33" si="22">G31</f>
+        <f t="shared" ref="I31" si="22">G31</f>
         <v>2</v>
       </c>
       <c r="J31" s="88"/>
@@ -6099,35 +6158,35 @@
       <c r="BK31" s="88"/>
       <c r="BL31" s="88"/>
       <c r="BM31" s="88"/>
-      <c r="BN31" s="103"/>
-    </row>
-    <row r="32" spans="1:66" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN31" s="99"/>
+    </row>
+    <row r="32" spans="1:66" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>5.2</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="69"/>
       <c r="D32" s="91"/>
       <c r="E32" s="92">
         <f>F31+1</f>
-        <v>43033</v>
+        <v>43047</v>
       </c>
       <c r="F32" s="93">
-        <f t="shared" si="21"/>
-        <v>43033</v>
+        <f t="shared" ref="F32:F34" si="23">IF(G32=0,E32,E32+G32-1)</f>
+        <v>43048</v>
       </c>
       <c r="G32" s="94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="95">
         <v>0</v>
       </c>
       <c r="I32" s="96">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" ref="I32:I34" si="24">G32</f>
+        <v>2</v>
       </c>
       <c r="J32" s="88"/>
       <c r="K32" s="88"/>
@@ -6187,23 +6246,23 @@
       <c r="BM32" s="88"/>
       <c r="BN32" s="103"/>
     </row>
-    <row r="33" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>5.3</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="91"/>
       <c r="E33" s="92">
         <f>F32+1</f>
-        <v>43034</v>
+        <v>43049</v>
       </c>
       <c r="F33" s="93">
-        <f t="shared" si="21"/>
-        <v>43034</v>
+        <f t="shared" si="23"/>
+        <v>43049</v>
       </c>
       <c r="G33" s="94">
         <v>1</v>
@@ -6212,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J33" s="88"/>
@@ -6271,23 +6330,36 @@
       <c r="BK33" s="88"/>
       <c r="BL33" s="88"/>
       <c r="BM33" s="88"/>
-      <c r="BN33" s="99"/>
+      <c r="BN33" s="103"/>
     </row>
     <row r="34" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A34,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="96"/>
+      <c r="A34" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.4</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92">
+        <f>F33+1</f>
+        <v>43050</v>
+      </c>
+      <c r="F34" s="93">
+        <f t="shared" si="23"/>
+        <v>43050</v>
+      </c>
+      <c r="G34" s="94">
+        <v>1</v>
+      </c>
+      <c r="H34" s="95">
+        <v>0</v>
+      </c>
+      <c r="I34" s="96">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
       <c r="J34" s="88"/>
       <c r="K34" s="88"/>
       <c r="L34" s="88"/>
@@ -6347,33 +6419,20 @@
       <c r="BN34" s="99"/>
     </row>
     <row r="35" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>6.1</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
-      </c>
-      <c r="F35" s="93">
-        <f>IF(G35=0,E35,E35+G35-1)</f>
-        <v>43031</v>
-      </c>
-      <c r="G35" s="94">
-        <v>1</v>
-      </c>
-      <c r="H35" s="95">
-        <v>0</v>
-      </c>
-      <c r="I35" s="96">
-        <f t="shared" ref="I35:I38" si="23">G35</f>
-        <v>1</v>
-      </c>
+      <c r="A35" s="84" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A35,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="96"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
       <c r="L35" s="88"/>
@@ -6435,20 +6494,20 @@
     <row r="36" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="91"/>
       <c r="E36" s="92">
-        <f>F35+1</f>
-        <v>43032</v>
+        <f>F24+1</f>
+        <v>43052</v>
       </c>
       <c r="F36" s="93">
-        <f t="shared" ref="F36:F38" si="24">IF(G36=0,E36,E36+G36-1)</f>
-        <v>43032</v>
+        <f>IF(G36=0,E36,E36+G36-1)</f>
+        <v>43052</v>
       </c>
       <c r="G36" s="94">
         <v>1</v>
@@ -6457,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="96">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I36:I39" si="25">G36</f>
         <v>1</v>
       </c>
       <c r="J36" s="88"/>
@@ -6521,20 +6580,20 @@
     <row r="37" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="91"/>
       <c r="E37" s="92">
         <f>F36+1</f>
-        <v>43033</v>
+        <v>43053</v>
       </c>
       <c r="F37" s="93">
-        <f t="shared" si="24"/>
-        <v>43033</v>
+        <f t="shared" ref="F37:F39" si="26">IF(G37=0,E37,E37+G37-1)</f>
+        <v>43053</v>
       </c>
       <c r="G37" s="94">
         <v>1</v>
@@ -6543,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J37" s="88"/>
@@ -6607,20 +6666,20 @@
     <row r="38" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="91"/>
       <c r="E38" s="92">
         <f>F37+1</f>
-        <v>43034</v>
+        <v>43054</v>
       </c>
       <c r="F38" s="93">
-        <f t="shared" si="24"/>
-        <v>43034</v>
+        <f t="shared" si="26"/>
+        <v>43054</v>
       </c>
       <c r="G38" s="94">
         <v>1</v>
@@ -6629,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J38" s="88"/>
@@ -6691,20 +6750,33 @@
       <c r="BN38" s="99"/>
     </row>
     <row r="39" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A39,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>7</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="96"/>
+      <c r="A39" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>6.4</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92">
+        <f>F38+1</f>
+        <v>43055</v>
+      </c>
+      <c r="F39" s="93">
+        <f t="shared" si="26"/>
+        <v>43055</v>
+      </c>
+      <c r="G39" s="94">
+        <v>1</v>
+      </c>
+      <c r="H39" s="95">
+        <v>0</v>
+      </c>
+      <c r="I39" s="96">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
       <c r="J39" s="88"/>
       <c r="K39" s="88"/>
       <c r="L39" s="88"/>
@@ -6764,33 +6836,20 @@
       <c r="BN39" s="99"/>
     </row>
     <row r="40" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>7.1</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
-      </c>
-      <c r="F40" s="93">
-        <f>IF(G40=0,E40,E40+G40-1)</f>
-        <v>43033</v>
-      </c>
-      <c r="G40" s="94">
-        <v>3</v>
-      </c>
-      <c r="H40" s="95">
-        <v>0</v>
-      </c>
-      <c r="I40" s="96">
-        <f t="shared" ref="I40:I43" si="25">G40</f>
-        <v>3</v>
-      </c>
+      <c r="A40" s="84" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A40,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>7</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="96"/>
       <c r="J40" s="88"/>
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
@@ -6852,30 +6911,30 @@
     <row r="41" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="91"/>
       <c r="E41" s="92">
-        <f>F40+1</f>
-        <v>43034</v>
+        <f>F19+1</f>
+        <v>43067</v>
       </c>
       <c r="F41" s="93">
-        <f t="shared" ref="F41:F43" si="26">IF(G41=0,E41,E41+G41-1)</f>
-        <v>43037</v>
+        <f>IF(G41=0,E41,E41+G41-1)</f>
+        <v>43069</v>
       </c>
       <c r="G41" s="94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="95">
         <v>0</v>
       </c>
       <c r="I41" s="96">
-        <f t="shared" si="25"/>
-        <v>4</v>
+        <f t="shared" ref="I41:I44" si="27">G41</f>
+        <v>3</v>
       </c>
       <c r="J41" s="88"/>
       <c r="K41" s="88"/>
@@ -6938,30 +6997,30 @@
     <row r="42" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="91"/>
       <c r="E42" s="92">
         <f>F41+1</f>
-        <v>43038</v>
+        <v>43070</v>
       </c>
       <c r="F42" s="93">
-        <f t="shared" si="26"/>
-        <v>43039</v>
+        <f t="shared" ref="F42:F44" si="28">IF(G42=0,E42,E42+G42-1)</f>
+        <v>43073</v>
       </c>
       <c r="G42" s="94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="95">
         <v>0</v>
       </c>
       <c r="I42" s="96">
-        <f t="shared" si="25"/>
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="J42" s="88"/>
       <c r="K42" s="88"/>
@@ -7024,20 +7083,20 @@
     <row r="43" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="91"/>
       <c r="E43" s="92">
         <f>F42+1</f>
-        <v>43040</v>
+        <v>43074</v>
       </c>
       <c r="F43" s="93">
-        <f t="shared" si="26"/>
-        <v>43041</v>
+        <f t="shared" si="28"/>
+        <v>43075</v>
       </c>
       <c r="G43" s="94">
         <v>2</v>
@@ -7046,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J43" s="88"/>
@@ -7107,21 +7166,34 @@
       <c r="BM43" s="88"/>
       <c r="BN43" s="99"/>
     </row>
-    <row r="44" spans="1:66" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="84" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A44,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A44,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>8</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="96"/>
+    <row r="44" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.4</v>
+      </c>
+      <c r="B44" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92">
+        <f>F43+1</f>
+        <v>43076</v>
+      </c>
+      <c r="F44" s="93">
+        <f t="shared" si="28"/>
+        <v>43077</v>
+      </c>
+      <c r="G44" s="94">
+        <v>2</v>
+      </c>
+      <c r="H44" s="95">
+        <v>0</v>
+      </c>
+      <c r="I44" s="96">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
       <c r="J44" s="88"/>
       <c r="K44" s="88"/>
       <c r="L44" s="88"/>
@@ -7180,34 +7252,21 @@
       <c r="BM44" s="88"/>
       <c r="BN44" s="99"/>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A45" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>8.1</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92">
-        <f>$E$4</f>
-        <v>43031</v>
-      </c>
-      <c r="F45" s="93">
-        <f>IF(G45=0,E45,E45+G45-1)</f>
-        <v>43031</v>
-      </c>
-      <c r="G45" s="94">
-        <v>1</v>
-      </c>
-      <c r="H45" s="95">
-        <v>0</v>
-      </c>
-      <c r="I45" s="96">
-        <f t="shared" ref="I45:I48" si="27">G45</f>
-        <v>1</v>
-      </c>
+    <row r="45" spans="1:66" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="84" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A45,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A45,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>8</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="96"/>
       <c r="J45" s="88"/>
       <c r="K45" s="88"/>
       <c r="L45" s="88"/>
@@ -7264,24 +7323,25 @@
       <c r="BK45" s="88"/>
       <c r="BL45" s="88"/>
       <c r="BM45" s="88"/>
+      <c r="BN45" s="99"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>8.2</v>
+        <v>8.1</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="91"/>
       <c r="E46" s="92">
-        <f>F45+1</f>
-        <v>43032</v>
+        <f>F39+1</f>
+        <v>43056</v>
       </c>
       <c r="F46" s="93">
-        <f t="shared" ref="F46:F48" si="28">IF(G46=0,E46,E46+G46-1)</f>
-        <v>43032</v>
+        <f>IF(G46=0,E46,E46+G46-1)</f>
+        <v>43056</v>
       </c>
       <c r="G46" s="94">
         <v>1</v>
@@ -7290,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="96">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I46:I49" si="29">G46</f>
         <v>1</v>
       </c>
       <c r="J46" s="88"/>
@@ -7353,20 +7413,20 @@
     <row r="47" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A47" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>8.3</v>
+        <v>8.2</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="91"/>
       <c r="E47" s="92">
         <f>F46+1</f>
-        <v>43033</v>
+        <v>43057</v>
       </c>
       <c r="F47" s="93">
-        <f t="shared" si="28"/>
-        <v>43033</v>
+        <f t="shared" ref="F47:F49" si="30">IF(G47=0,E47,E47+G47-1)</f>
+        <v>43057</v>
       </c>
       <c r="G47" s="94">
         <v>1</v>
@@ -7375,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J47" s="88"/>
@@ -7438,20 +7498,20 @@
     <row r="48" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A48" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>8.4</v>
+        <v>8.3</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="69"/>
       <c r="D48" s="91"/>
       <c r="E48" s="92">
         <f>F47+1</f>
-        <v>43034</v>
+        <v>43058</v>
       </c>
       <c r="F48" s="93">
-        <f t="shared" si="28"/>
-        <v>43034</v>
+        <f t="shared" si="30"/>
+        <v>43058</v>
       </c>
       <c r="G48" s="94">
         <v>1</v>
@@ -7460,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J48" s="88"/>
@@ -7520,403 +7580,902 @@
       <c r="BL48" s="88"/>
       <c r="BM48" s="88"/>
     </row>
-    <row r="49" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="66"/>
+    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A49" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>8.4</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92">
+        <f>F48+1</f>
+        <v>43059</v>
+      </c>
+      <c r="F49" s="93">
+        <f t="shared" si="30"/>
+        <v>43059</v>
+      </c>
+      <c r="G49" s="94">
+        <v>1</v>
+      </c>
+      <c r="H49" s="95">
+        <v>0</v>
+      </c>
+      <c r="I49" s="96">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
       <c r="J49" s="88"/>
       <c r="K49" s="88"/>
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="125"/>
-      <c r="R49" s="125"/>
-      <c r="S49" s="125"/>
-      <c r="T49" s="125"/>
-      <c r="U49" s="125"/>
-      <c r="V49" s="125"/>
-      <c r="W49" s="125"/>
-      <c r="X49" s="125"/>
-      <c r="Y49" s="125"/>
-      <c r="Z49" s="125"/>
-      <c r="AA49" s="125"/>
-      <c r="AB49" s="125"/>
-      <c r="AC49" s="125"/>
-      <c r="AD49" s="125"/>
-      <c r="AE49" s="125"/>
-      <c r="AF49" s="125"/>
-      <c r="AG49" s="125"/>
-      <c r="AH49" s="125"/>
-      <c r="AI49" s="125"/>
-      <c r="AJ49" s="125"/>
-      <c r="AK49" s="125"/>
-      <c r="AL49" s="125"/>
-      <c r="AM49" s="125"/>
-      <c r="AN49" s="125"/>
-      <c r="AO49" s="125"/>
-      <c r="AP49" s="125"/>
-      <c r="AQ49" s="125"/>
-      <c r="AR49" s="125"/>
-      <c r="AS49" s="125"/>
-      <c r="AT49" s="125"/>
-      <c r="AU49" s="125"/>
-      <c r="AV49" s="125"/>
-      <c r="AW49" s="125"/>
-      <c r="AX49" s="125"/>
-      <c r="AY49" s="125"/>
-      <c r="AZ49" s="125"/>
-      <c r="BA49" s="125"/>
-      <c r="BB49" s="125"/>
-      <c r="BC49" s="125"/>
-      <c r="BD49" s="125"/>
-      <c r="BE49" s="125"/>
-      <c r="BF49" s="125"/>
-      <c r="BG49" s="125"/>
-      <c r="BH49" s="125"/>
-      <c r="BI49" s="125"/>
-      <c r="BJ49" s="125"/>
-      <c r="BK49" s="125"/>
-      <c r="BL49" s="125"/>
-      <c r="BM49" s="125"/>
-    </row>
-    <row r="50" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="88"/>
+      <c r="AO49" s="88"/>
+      <c r="AP49" s="88"/>
+      <c r="AQ49" s="88"/>
+      <c r="AR49" s="88"/>
+      <c r="AS49" s="88"/>
+      <c r="AT49" s="88"/>
+      <c r="AU49" s="88"/>
+      <c r="AV49" s="88"/>
+      <c r="AW49" s="88"/>
+      <c r="AX49" s="88"/>
+      <c r="AY49" s="88"/>
+      <c r="AZ49" s="88"/>
+      <c r="BA49" s="88"/>
+      <c r="BB49" s="88"/>
+      <c r="BC49" s="88"/>
+      <c r="BD49" s="88"/>
+      <c r="BE49" s="88"/>
+      <c r="BF49" s="88"/>
+      <c r="BG49" s="88"/>
+      <c r="BH49" s="88"/>
+      <c r="BI49" s="88"/>
+      <c r="BJ49" s="88"/>
+      <c r="BK49" s="88"/>
+      <c r="BL49" s="88"/>
+      <c r="BM49" s="88"/>
+    </row>
+    <row r="50" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A50" s="84" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A50,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>9</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>152</v>
+      </c>
       <c r="D50" s="85"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="87"/>
       <c r="H50" s="67"/>
-      <c r="I50" s="66"/>
+      <c r="I50" s="96"/>
       <c r="J50" s="88"/>
       <c r="K50" s="88"/>
       <c r="L50" s="88"/>
       <c r="M50" s="88"/>
-    </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A51" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
+      <c r="AO50" s="88"/>
+      <c r="AP50" s="88"/>
+      <c r="AQ50" s="88"/>
+      <c r="AR50" s="88"/>
+      <c r="AS50" s="88"/>
+      <c r="AT50" s="88"/>
+      <c r="AU50" s="88"/>
+      <c r="AV50" s="88"/>
+      <c r="AW50" s="88"/>
+      <c r="AX50" s="88"/>
+      <c r="AY50" s="88"/>
+      <c r="AZ50" s="88"/>
+      <c r="BA50" s="88"/>
+      <c r="BB50" s="88"/>
+      <c r="BC50" s="88"/>
+      <c r="BD50" s="88"/>
+      <c r="BE50" s="88"/>
+      <c r="BF50" s="88"/>
+      <c r="BG50" s="88"/>
+      <c r="BH50" s="88"/>
+      <c r="BI50" s="88"/>
+      <c r="BJ50" s="88"/>
+      <c r="BK50" s="88"/>
+      <c r="BL50" s="88"/>
+      <c r="BM50" s="88"/>
+    </row>
+    <row r="51" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.1</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="92">
+        <f>F44+1</f>
+        <v>43078</v>
+      </c>
+      <c r="F51" s="93">
+        <f>IF(G51=0,E51,E51+G51-1)</f>
+        <v>43086</v>
+      </c>
+      <c r="G51" s="94">
+        <v>9</v>
+      </c>
+      <c r="H51" s="95">
+        <v>0</v>
+      </c>
+      <c r="I51" s="96">
+        <f t="shared" ref="I51:I54" si="31">G51</f>
+        <v>9</v>
+      </c>
       <c r="J51" s="88"/>
       <c r="K51" s="88"/>
       <c r="L51" s="88"/>
       <c r="M51" s="88"/>
-    </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A52" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88"/>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
+      <c r="AO51" s="88"/>
+      <c r="AP51" s="88"/>
+      <c r="AQ51" s="88"/>
+      <c r="AR51" s="88"/>
+      <c r="AS51" s="88"/>
+      <c r="AT51" s="88"/>
+      <c r="AU51" s="88"/>
+      <c r="AV51" s="88"/>
+      <c r="AW51" s="88"/>
+      <c r="AX51" s="88"/>
+      <c r="AY51" s="88"/>
+      <c r="AZ51" s="88"/>
+      <c r="BA51" s="88"/>
+      <c r="BB51" s="88"/>
+      <c r="BC51" s="88"/>
+      <c r="BD51" s="88"/>
+      <c r="BE51" s="88"/>
+      <c r="BF51" s="88"/>
+      <c r="BG51" s="88"/>
+      <c r="BH51" s="88"/>
+      <c r="BI51" s="88"/>
+      <c r="BJ51" s="88"/>
+      <c r="BK51" s="88"/>
+      <c r="BL51" s="88"/>
+      <c r="BM51" s="88"/>
+    </row>
+    <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.2</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="92">
+        <f>F51+1</f>
+        <v>43087</v>
+      </c>
+      <c r="F52" s="93">
+        <f t="shared" ref="F52:F54" si="32">IF(G52=0,E52,E52+G52-1)</f>
+        <v>43087</v>
+      </c>
+      <c r="G52" s="94">
+        <v>1</v>
+      </c>
+      <c r="H52" s="95">
+        <v>0</v>
+      </c>
+      <c r="I52" s="96">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
       <c r="J52" s="88"/>
       <c r="K52" s="88"/>
       <c r="L52" s="88"/>
       <c r="M52" s="88"/>
-    </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A53" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88"/>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
+      <c r="AO52" s="88"/>
+      <c r="AP52" s="88"/>
+      <c r="AQ52" s="88"/>
+      <c r="AR52" s="88"/>
+      <c r="AS52" s="88"/>
+      <c r="AT52" s="88"/>
+      <c r="AU52" s="88"/>
+      <c r="AV52" s="88"/>
+      <c r="AW52" s="88"/>
+      <c r="AX52" s="88"/>
+      <c r="AY52" s="88"/>
+      <c r="AZ52" s="88"/>
+      <c r="BA52" s="88"/>
+      <c r="BB52" s="88"/>
+      <c r="BC52" s="88"/>
+      <c r="BD52" s="88"/>
+      <c r="BE52" s="88"/>
+      <c r="BF52" s="88"/>
+      <c r="BG52" s="88"/>
+      <c r="BH52" s="88"/>
+      <c r="BI52" s="88"/>
+      <c r="BJ52" s="88"/>
+      <c r="BK52" s="88"/>
+      <c r="BL52" s="88"/>
+      <c r="BM52" s="88"/>
+    </row>
+    <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.3</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="92">
+        <f>F52+1</f>
+        <v>43088</v>
+      </c>
+      <c r="F53" s="93">
+        <f t="shared" si="32"/>
+        <v>43088</v>
+      </c>
+      <c r="G53" s="94">
+        <v>1</v>
+      </c>
+      <c r="H53" s="95">
+        <v>0</v>
+      </c>
+      <c r="I53" s="96">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
       <c r="J53" s="88"/>
       <c r="K53" s="88"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-    </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
+      <c r="AO53" s="88"/>
+      <c r="AP53" s="88"/>
+      <c r="AQ53" s="88"/>
+      <c r="AR53" s="88"/>
+      <c r="AS53" s="88"/>
+      <c r="AT53" s="88"/>
+      <c r="AU53" s="88"/>
+      <c r="AV53" s="88"/>
+      <c r="AW53" s="88"/>
+      <c r="AX53" s="88"/>
+      <c r="AY53" s="88"/>
+      <c r="AZ53" s="88"/>
+      <c r="BA53" s="88"/>
+      <c r="BB53" s="88"/>
+      <c r="BC53" s="88"/>
+      <c r="BD53" s="88"/>
+      <c r="BE53" s="88"/>
+      <c r="BF53" s="88"/>
+      <c r="BG53" s="88"/>
+      <c r="BH53" s="88"/>
+      <c r="BI53" s="88"/>
+      <c r="BJ53" s="88"/>
+      <c r="BK53" s="88"/>
+      <c r="BL53" s="88"/>
+      <c r="BM53" s="88"/>
+    </row>
+    <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A54,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A54,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <f t="shared" ca="1" si="15"/>
+        <v>9.4</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="92">
+        <f>F53+1</f>
+        <v>43089</v>
+      </c>
+      <c r="F54" s="93">
+        <f t="shared" si="32"/>
+        <v>43089</v>
+      </c>
+      <c r="G54" s="94">
         <v>1</v>
       </c>
-      <c r="B54" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="112"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="115"/>
+      <c r="H54" s="95">
+        <v>0</v>
+      </c>
+      <c r="I54" s="96">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
       <c r="J54" s="88"/>
       <c r="K54" s="88"/>
       <c r="L54" s="88"/>
       <c r="M54" s="88"/>
-    </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A55" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A55,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1))),OFFSET(A55,-1,0,1,1)&amp;".1",LEFT(OFFSET(A55,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A55,-1,0,1,1),LEN(OFFSET(A55,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A55,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B55" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="117"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="115"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88"/>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
+      <c r="AO54" s="88"/>
+      <c r="AP54" s="88"/>
+      <c r="AQ54" s="88"/>
+      <c r="AR54" s="88"/>
+      <c r="AS54" s="88"/>
+      <c r="AT54" s="88"/>
+      <c r="AU54" s="88"/>
+      <c r="AV54" s="88"/>
+      <c r="AW54" s="88"/>
+      <c r="AX54" s="88"/>
+      <c r="AY54" s="88"/>
+      <c r="AZ54" s="88"/>
+      <c r="BA54" s="88"/>
+      <c r="BB54" s="88"/>
+      <c r="BC54" s="88"/>
+      <c r="BD54" s="88"/>
+      <c r="BE54" s="88"/>
+      <c r="BF54" s="88"/>
+      <c r="BG54" s="88"/>
+      <c r="BH54" s="88"/>
+      <c r="BI54" s="88"/>
+      <c r="BJ54" s="88"/>
+      <c r="BK54" s="88"/>
+      <c r="BL54" s="88"/>
+      <c r="BM54" s="88"/>
+    </row>
+    <row r="55" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="88"/>
       <c r="K55" s="88"/>
       <c r="L55" s="88"/>
       <c r="M55" s="88"/>
-    </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A56" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A56,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2))),OFFSET(A56,-1,0,1,1)&amp;".1",LEFT(OFFSET(A56,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A56,-1,0,1,1),LEN(OFFSET(A56,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A56,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B56" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="115"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="125"/>
+      <c r="R55" s="125"/>
+      <c r="S55" s="125"/>
+      <c r="T55" s="125"/>
+      <c r="U55" s="125"/>
+      <c r="V55" s="125"/>
+      <c r="W55" s="125"/>
+      <c r="X55" s="125"/>
+      <c r="Y55" s="125"/>
+      <c r="Z55" s="125"/>
+      <c r="AA55" s="125"/>
+      <c r="AB55" s="125"/>
+      <c r="AC55" s="125"/>
+      <c r="AD55" s="125"/>
+      <c r="AE55" s="125"/>
+      <c r="AF55" s="125"/>
+      <c r="AG55" s="125"/>
+      <c r="AH55" s="125"/>
+      <c r="AI55" s="125"/>
+      <c r="AJ55" s="125"/>
+      <c r="AK55" s="125"/>
+      <c r="AL55" s="125"/>
+      <c r="AM55" s="125"/>
+      <c r="AN55" s="125"/>
+      <c r="AO55" s="125"/>
+      <c r="AP55" s="125"/>
+      <c r="AQ55" s="125"/>
+      <c r="AR55" s="125"/>
+      <c r="AS55" s="125"/>
+      <c r="AT55" s="125"/>
+      <c r="AU55" s="125"/>
+      <c r="AV55" s="125"/>
+      <c r="AW55" s="125"/>
+      <c r="AX55" s="125"/>
+      <c r="AY55" s="125"/>
+      <c r="AZ55" s="125"/>
+      <c r="BA55" s="125"/>
+      <c r="BB55" s="125"/>
+      <c r="BC55" s="125"/>
+      <c r="BD55" s="125"/>
+      <c r="BE55" s="125"/>
+      <c r="BF55" s="125"/>
+      <c r="BG55" s="125"/>
+      <c r="BH55" s="125"/>
+      <c r="BI55" s="125"/>
+      <c r="BJ55" s="125"/>
+      <c r="BK55" s="125"/>
+      <c r="BL55" s="125"/>
+      <c r="BM55" s="125"/>
+    </row>
+    <row r="56" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="66"/>
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
       <c r="L56" s="88"/>
       <c r="M56" s="88"/>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A57" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A57,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3))),OFFSET(A57,-1,0,1,1)&amp;".1",LEFT(OFFSET(A57,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A57,-1,0,1,1),LEN(OFFSET(A57,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A57,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B57" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="117"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="115"/>
+    <row r="57" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="142"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
       <c r="L57" s="88"/>
       <c r="M57" s="88"/>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A58" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
+    <row r="58" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
       <c r="L58" s="88"/>
       <c r="M58" s="88"/>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A59" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A59,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A59,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A59,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A59,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A59,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B59" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="121">
-        <f>MIN(E60:E63)</f>
-        <v>42095</v>
-      </c>
-      <c r="F59" s="121">
-        <f>MAX(F60:F63)</f>
-        <v>42111</v>
-      </c>
-      <c r="G59" s="115">
-        <f>IF(OR(F59=0,E59=0),0,F59-E59+1)</f>
-        <v>17</v>
-      </c>
-      <c r="H59" s="122"/>
-      <c r="I59" s="96">
-        <f>IF(OR(F59=0,E59=0),0,NETWORKDAYS(E59,F59))</f>
-        <v>13</v>
-      </c>
+    <row r="59" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
       <c r="J59" s="88"/>
       <c r="K59" s="88"/>
       <c r="L59" s="88"/>
       <c r="M59" s="88"/>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A60" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="119"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="92">
-        <v>42095</v>
-      </c>
-      <c r="F60" s="93">
-        <f>IF(G60=0,E60,E60+G60-1)</f>
-        <v>42095</v>
-      </c>
-      <c r="G60" s="94">
+    <row r="60" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A60,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A60,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A60,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="H60" s="95"/>
-      <c r="I60" s="96">
-        <f t="shared" ref="I60" si="29">IF(OR(F60=0,E60=0),0,NETWORKDAYS(E60,F60))</f>
-        <v>1</v>
-      </c>
+      <c r="B60" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="115"/>
       <c r="J60" s="88"/>
       <c r="K60" s="88"/>
       <c r="L60" s="88"/>
       <c r="M60" s="88"/>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="90" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A61,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))),OFFSET(A61,-1,0,1,1)&amp;".1",LEFT(OFFSET(A61,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A61,-1,0,1,1),LEN(OFFSET(A61,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A61,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C61" s="117"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="92">
-        <v>42095</v>
-      </c>
-      <c r="F61" s="93">
-        <f>IF(G61=0,E61,E61+G61-1)</f>
-        <v>42097</v>
-      </c>
-      <c r="G61" s="94">
-        <v>3</v>
-      </c>
-      <c r="H61" s="95"/>
-      <c r="I61" s="96">
-        <f>IF(OR(F61=0,E61=0),0,NETWORKDAYS(E61,F61))</f>
-        <v>3</v>
-      </c>
+      <c r="D61" s="113"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="115"/>
       <c r="J61" s="88"/>
       <c r="K61" s="88"/>
       <c r="L61" s="88"/>
       <c r="M61" s="88"/>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A62,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))),OFFSET(A62,-1,0,1,1)&amp;".1",LEFT(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A62,-1,0,1,1),LEN(OFFSET(A62,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B62" s="117" t="s">
-        <v>146</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A62,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))),OFFSET(A62,-1,0,1,1)&amp;".1",LEFT(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A62,-1,0,1,1),LEN(OFFSET(A62,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B62" s="118" t="s">
+        <v>24</v>
       </c>
       <c r="C62" s="117"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="92">
-        <f>F61+1</f>
-        <v>42098</v>
-      </c>
-      <c r="F62" s="93">
-        <f t="shared" ref="F62:F63" si="30">IF(G62=0,E62,E62+G62-1)</f>
-        <v>42104</v>
-      </c>
-      <c r="G62" s="94">
-        <v>7</v>
-      </c>
-      <c r="H62" s="95"/>
-      <c r="I62" s="96">
-        <f t="shared" ref="I62:I63" si="31">IF(OR(F62=0,E62=0),0,NETWORKDAYS(E62,F62))</f>
-        <v>5</v>
-      </c>
+      <c r="D62" s="113"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="115"/>
       <c r="J62" s="88"/>
       <c r="K62" s="88"/>
       <c r="L62" s="88"/>
       <c r="M62" s="88"/>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A63,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))),OFFSET(A63,-1,0,1,1)&amp;".1",LEFT(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A63,-1,0,1,1),LEN(OFFSET(A63,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B63" s="117" t="s">
-        <v>145</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A63,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))),OFFSET(A63,-1,0,1,1)&amp;".1",LEFT(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A63,-1,0,1,1),LEN(OFFSET(A63,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B63" s="118" t="s">
+        <v>25</v>
       </c>
       <c r="C63" s="117"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="92">
-        <f>WORKDAY(F62,1)</f>
-        <v>42107</v>
-      </c>
-      <c r="F63" s="93">
-        <f t="shared" si="30"/>
-        <v>42111</v>
-      </c>
-      <c r="G63" s="94">
-        <v>5</v>
-      </c>
-      <c r="H63" s="95"/>
-      <c r="I63" s="96">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
+      <c r="D63" s="113"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="115"/>
       <c r="J63" s="88"/>
       <c r="K63" s="88"/>
       <c r="L63" s="88"/>
       <c r="M63" s="88"/>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A64" s="124"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="125"/>
+    <row r="64" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A65,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A65,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A65,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A65,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A65,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B65" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="119"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="121">
+        <f>MIN(E66:E69)</f>
+        <v>42095</v>
+      </c>
+      <c r="F65" s="121">
+        <f>MAX(F66:F69)</f>
+        <v>42111</v>
+      </c>
+      <c r="G65" s="115">
+        <f>IF(OR(F65=0,E65=0),0,F65-E65+1)</f>
+        <v>17</v>
+      </c>
+      <c r="H65" s="122"/>
+      <c r="I65" s="96">
+        <f>IF(OR(F65=0,E65=0),0,NETWORKDAYS(E65,F65))</f>
+        <v>13</v>
+      </c>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="119"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="92">
+        <v>42095</v>
+      </c>
+      <c r="F66" s="93">
+        <f>IF(G66=0,E66,E66+G66-1)</f>
+        <v>42095</v>
+      </c>
+      <c r="G66" s="94">
+        <v>1</v>
+      </c>
+      <c r="H66" s="95"/>
+      <c r="I66" s="96">
+        <f t="shared" ref="I66" si="33">IF(OR(F66=0,E66=0),0,NETWORKDAYS(E66,F66))</f>
+        <v>1</v>
+      </c>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A67,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))),OFFSET(A67,-1,0,1,1)&amp;".1",LEFT(OFFSET(A67,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A67,-1,0,1,1),LEN(OFFSET(A67,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A67,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B67" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="117"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="92">
+        <v>42095</v>
+      </c>
+      <c r="F67" s="93">
+        <f>IF(G67=0,E67,E67+G67-1)</f>
+        <v>42097</v>
+      </c>
+      <c r="G67" s="94">
+        <v>3</v>
+      </c>
+      <c r="H67" s="95"/>
+      <c r="I67" s="96">
+        <f>IF(OR(F67=0,E67=0),0,NETWORKDAYS(E67,F67))</f>
+        <v>3</v>
+      </c>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A68,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))),OFFSET(A68,-1,0,1,1)&amp;".1",LEFT(OFFSET(A68,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A68,-1,0,1,1),LEN(OFFSET(A68,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A68,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B68" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="117"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="92">
+        <f>F67+1</f>
+        <v>42098</v>
+      </c>
+      <c r="F68" s="93">
+        <f t="shared" ref="F68:F69" si="34">IF(G68=0,E68,E68+G68-1)</f>
+        <v>42104</v>
+      </c>
+      <c r="G68" s="94">
+        <v>7</v>
+      </c>
+      <c r="H68" s="95"/>
+      <c r="I68" s="96">
+        <f t="shared" ref="I68:I69" si="35">IF(OR(F68=0,E68=0),0,NETWORKDAYS(E68,F68))</f>
+        <v>5</v>
+      </c>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A69,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))),OFFSET(A69,-1,0,1,1)&amp;".1",LEFT(OFFSET(A69,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A69,-1,0,1,1),LEN(OFFSET(A69,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A69,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
+      </c>
+      <c r="B69" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="117"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="92">
+        <f>WORKDAY(F68,1)</f>
+        <v>42107</v>
+      </c>
+      <c r="F69" s="93">
+        <f t="shared" si="34"/>
+        <v>42111</v>
+      </c>
+      <c r="G69" s="94">
+        <v>5</v>
+      </c>
+      <c r="H69" s="95"/>
+      <c r="I69" s="96">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="124"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
+      <c r="M70" s="125"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Gyg07Wicfuhr5ivKKRwD7m93lmrchT15p2Fi19Q/s/HmKRdOseyZf7dnsiPiO1gjIFLrp/RFUJ1zZow6dpbUng==" saltValue="UwcbeFYaIUQbeaRPJ0q4QQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -7930,7 +8489,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="J2:Z2"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="AZ6:BF6"/>
     <mergeCell ref="X6:AD6"/>
@@ -7947,8 +8506,8 @@
     <mergeCell ref="AL5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H61:H63 H8:H12 H15:H19 H49:H59 H30:H33">
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="H67:H69 H8:H12 H15:H19 H30 H32:H34 H55:H65">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7962,20 +8521,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM7">
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="10" priority="40">
       <formula>AND(TODAY()&gt;=J4,TODAY()&lt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:BM19 J49:M63 J30:BM48">
-    <cfRule type="expression" dxfId="5" priority="46">
+  <conditionalFormatting sqref="J8:BM19 J55:M69 J30:BM49">
+    <cfRule type="expression" dxfId="9" priority="50">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="64">
+    <cfRule type="expression" dxfId="8" priority="68">
       <formula>AND($E8&lt;K$4,$F8&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="30">
+  <conditionalFormatting sqref="H66">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7989,7 +8548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8003,7 +8562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8017,7 +8576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H24">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8031,15 +8590,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM24">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>AND($E20&lt;K$4,$F20&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H29">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8053,15 +8612,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BM29">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>AND($E25&lt;K$4,$F25&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H38">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="H35:H39">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8074,8 +8633,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="H40:H44">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8088,8 +8647,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H48">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H45:H49">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8102,6 +8661,42 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28FBEDD8-9AD2-419E-A0DA-71FECBCF6A7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:BM54">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>J$4=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E50&lt;K$4,$F50&gt;=J$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H54">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA545BA4-4AFC-4584-9C38-D592C0238B3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J2" location="GanttChartPro!A1" display="See info on Gantt Chart Pro"/>
     <hyperlink ref="J2:T2" location="GanttChartPro!A1" display="See info on Gantt Chart Template Pro"/>
@@ -8110,8 +8705,8 @@
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E15:H15 A12 F59:I59 I60 A62:A63 B60 F60 A61 F61 H61:I61 F62:F63 I62:I63 E62:E63 E59 A59:B59 B58 E9:F9 H9:I9 E10:F10 F11 F12 E49:I58 F16 A8 A9 A10 A11 F19 A15 A16 A17 A18 A19 A49:B57 H16 F17 H17 F18 H18 H19" unlockedFormula="1"/>
-    <ignoredError sqref="A60" numberStoredAsText="1" unlockedFormula="1"/>
+    <ignoredError sqref="E15:H15 A12 F65:I65 I66 A68:A69 B66 F66 A67 F67 H67:I67 F68:F69 I68:I69 E68:E69 E65 A65:B65 B64 E9:F9 H9:I9 E10:F10 F11 F12 E55:I64 F16 A8 A9 A10 A11 F19 A15 A16 A17 A18 A19 A55:B63 H16 F17 H17 F18 H18 H19" unlockedFormula="1"/>
+    <ignoredError sqref="A66" numberStoredAsText="1" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -8130,7 +8725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61:H63 H8:H12 H15:H19 H49:H59 H30:H33</xm:sqref>
+          <xm:sqref>H67:H69 H8:H12 H15:H19 H30 H32:H34 H55:H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E3B0E97-54C6-4C3F-ADB1-A6BFE39A7A9C}">
@@ -8145,7 +8740,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{958F470E-BBEF-443F-AD39-E9633AE02CBC}">
@@ -8220,7 +8815,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:H38</xm:sqref>
+          <xm:sqref>H35:H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{031E6079-1209-492C-A27C-1D0381931330}">
@@ -8235,7 +8830,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39:H43</xm:sqref>
+          <xm:sqref>H40:H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51373796-A18E-45C0-A955-06F73F3A4B56}">
@@ -8250,7 +8845,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44:H48</xm:sqref>
+          <xm:sqref>H45:H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28FBEDD8-9AD2-419E-A0DA-71FECBCF6A7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA545BA4-4AFC-4584-9C38-D592C0238B3B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50:H54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
